--- a/SoftMasters/wwwroot/appdata/report.xlsx
+++ b/SoftMasters/wwwroot/appdata/report.xlsx
@@ -43,13 +43,13 @@
     <t>Станция:</t>
   </si>
   <si>
-    <t>САРБАЛА</t>
+    <t>НОВОКУЗНЕЦК-СОРТИРОВОЧНЫЙ</t>
   </si>
   <si>
     <t>Состав №:</t>
   </si>
   <si>
-    <t>924</t>
+    <t>331</t>
   </si>
   <si>
     <t>Дата :</t>
@@ -79,7 +79,7 @@
     <t>Последняя операция</t>
   </si>
   <si>
-    <t>ЭЛ533217</t>
+    <t>ЭЛ428313</t>
   </si>
   <si>
     <t>УГОЛЬ КАМЕННЫЙ МАРКИ Т-ТОЩИЙ</t>
@@ -88,37 +88,37 @@
     <t xml:space="preserve">ОТПРАВЛЕНИЕ  ВАГОНА В СОСТАВЕ ПОЕЗДА СО СТАНЦИИ</t>
   </si>
   <si>
-    <t>ЭЛ533575</t>
-  </si>
-  <si>
-    <t>ЭЛ532397</t>
-  </si>
-  <si>
-    <t>ЭЛ532942</t>
-  </si>
-  <si>
-    <t>ЭЛ532952</t>
-  </si>
-  <si>
-    <t>ЭЛ532742</t>
-  </si>
-  <si>
-    <t>ЭЛ533201</t>
-  </si>
-  <si>
-    <t>ЭЛ533775</t>
-  </si>
-  <si>
-    <t>ЭЛ533415</t>
-  </si>
-  <si>
-    <t>ЭЛ533932</t>
-  </si>
-  <si>
-    <t>ЭЛ534071</t>
-  </si>
-  <si>
-    <t>ЭЛ532537</t>
+    <t>ЭЛ425819</t>
+  </si>
+  <si>
+    <t>ЭЛ425305</t>
+  </si>
+  <si>
+    <t>ЭЛ426130</t>
+  </si>
+  <si>
+    <t>ЭЛ426636</t>
+  </si>
+  <si>
+    <t>ЭЛ427638</t>
+  </si>
+  <si>
+    <t>ЭЛ426917</t>
+  </si>
+  <si>
+    <t>ЭЛ427207</t>
+  </si>
+  <si>
+    <t>ЭЛ424859</t>
+  </si>
+  <si>
+    <t>ЭЛ428142</t>
+  </si>
+  <si>
+    <t>ЭЛ427999</t>
+  </si>
+  <si>
+    <t>ЭЛ427754</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
-        <v>2434</v>
+        <v>2874</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>60141330</v>
+        <v>52828670</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -678,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>74700</v>
+        <v>69000</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>60790508</v>
+        <v>52909470</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>18</v>
@@ -712,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>61100384</v>
+        <v>52970167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>62092358</v>
+        <v>53160024</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -747,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -758,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>62100870</v>
+        <v>53160081</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -781,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>62132469</v>
+        <v>53160651</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>74700</v>
+        <v>69000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>18</v>
@@ -804,10 +804,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>62368972</v>
+        <v>53764833</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>62405964</v>
+        <v>54012166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -839,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>18</v>
@@ -850,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>62655683</v>
+        <v>54017603</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>18</v>
@@ -873,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>62660915</v>
+        <v>54897731</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>18</v>
@@ -896,10 +896,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>62737846</v>
+        <v>55181879</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>18</v>
@@ -919,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>62742788</v>
+        <v>55193767</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -931,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>18</v>
@@ -942,10 +942,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>62753041</v>
+        <v>55297972</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>18</v>
@@ -965,10 +965,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>62756846</v>
+        <v>55298269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -977,7 +977,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>18</v>
@@ -988,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>62762539</v>
+        <v>55357792</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1000,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>18</v>
@@ -1011,10 +1011,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="1">
-        <v>62762653</v>
+        <v>55626782</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>18</v>
@@ -1034,10 +1034,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="1">
-        <v>62786447</v>
+        <v>55632889</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>18</v>
@@ -1057,10 +1057,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>62829809</v>
+        <v>55636161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>18</v>
@@ -1080,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="1">
-        <v>62846936</v>
+        <v>55638696</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>18</v>
@@ -1103,10 +1103,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>62848973</v>
+        <v>55798052</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
@@ -1115,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>18</v>
@@ -1126,10 +1126,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>62861885</v>
+        <v>55802235</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
@@ -1138,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>18</v>
@@ -1149,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>62892856</v>
+        <v>56603632</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>18</v>
@@ -1172,10 +1172,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>62895743</v>
+        <v>56799448</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>18</v>
@@ -1195,10 +1195,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>62942446</v>
+        <v>58061979</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>18</v>
@@ -1218,10 +1218,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>62968805</v>
+        <v>58062001</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
@@ -1230,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>18</v>
@@ -1241,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>62970306</v>
+        <v>59088161</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
@@ -1253,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>18</v>
@@ -1264,10 +1264,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="1">
-        <v>62982038</v>
+        <v>59385484</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1276,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>18</v>
@@ -1287,10 +1287,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>62990213</v>
+        <v>59403378</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>8</v>
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>74700</v>
+        <v>69000</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>18</v>
@@ -1310,10 +1310,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>63052823</v>
+        <v>59410647</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>8</v>
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>18</v>
@@ -1333,10 +1333,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="1">
-        <v>63090476</v>
+        <v>59423459</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>74700</v>
+        <v>69000</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>18</v>
@@ -1356,10 +1356,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="1">
-        <v>63099089</v>
+        <v>59462796</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>18</v>
@@ -1379,10 +1379,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="1">
-        <v>63099576</v>
+        <v>59959916</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>18</v>
@@ -1402,10 +1402,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="1">
-        <v>63142152</v>
+        <v>59960062</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>8</v>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>18</v>
@@ -1425,10 +1425,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="1">
-        <v>63158182</v>
+        <v>59961177</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>18</v>
@@ -1448,7 +1448,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1">
-        <v>63164248</v>
+        <v>60608403</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -1460,7 +1460,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>18</v>
@@ -1471,10 +1471,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>63215255</v>
+        <v>60689171</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
@@ -1483,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>18</v>
@@ -1494,10 +1494,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>63248504</v>
+        <v>60743820</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
@@ -1506,7 +1506,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>18</v>
@@ -1517,10 +1517,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="1">
-        <v>63275168</v>
+        <v>60776515</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>18</v>
@@ -1540,10 +1540,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="1">
-        <v>63293088</v>
+        <v>60781507</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
@@ -1552,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>18</v>
@@ -1563,10 +1563,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="1">
-        <v>63364855</v>
+        <v>60838232</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
@@ -1575,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>18</v>
@@ -1586,10 +1586,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1">
-        <v>63365274</v>
+        <v>60998853</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
@@ -1598,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="F47" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>18</v>
@@ -1609,10 +1609,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="1">
-        <v>63413389</v>
+        <v>61008124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
@@ -1621,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="F48" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>18</v>
@@ -1632,10 +1632,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="1">
-        <v>63484018</v>
+        <v>61181475</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>8</v>
@@ -1644,7 +1644,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>18</v>
@@ -1655,10 +1655,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="1">
-        <v>63519565</v>
+        <v>61732178</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
@@ -1667,7 +1667,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>18</v>
@@ -1678,10 +1678,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="1">
-        <v>63533764</v>
+        <v>61788816</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>18</v>
@@ -1701,10 +1701,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>63666457</v>
+        <v>61796728</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>8</v>
@@ -1713,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="F52" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>18</v>
@@ -1724,10 +1724,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>63876205</v>
+        <v>61814042</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
@@ -1736,7 +1736,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>18</v>
@@ -1747,7 +1747,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>63883904</v>
+        <v>61865242</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>27</v>
@@ -1759,7 +1759,7 @@
         <v>17</v>
       </c>
       <c r="F54" s="2">
-        <v>74700</v>
+        <v>70000</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>18</v>
@@ -1770,10 +1770,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="1">
-        <v>63929178</v>
+        <v>61926150</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>8</v>
@@ -1782,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>18</v>
@@ -1793,10 +1793,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="1">
-        <v>63995484</v>
+        <v>61926754</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>8</v>
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F56" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>18</v>
@@ -1816,10 +1816,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>64087760</v>
+        <v>61926861</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>8</v>
@@ -1828,7 +1828,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="2">
-        <v>74700</v>
+        <v>69500</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>18</v>
@@ -1839,10 +1839,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="1">
-        <v>64253073</v>
+        <v>61926887</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>8</v>
@@ -1851,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="2">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>18</v>
@@ -1862,10 +1862,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="1">
-        <v>68160878</v>
+        <v>62054077</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
@@ -1874,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>18</v>
@@ -1885,10 +1885,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="1">
-        <v>68169275</v>
+        <v>62058573</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="F60" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>18</v>
@@ -1908,10 +1908,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>68182542</v>
+        <v>62058813</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>18</v>
@@ -1931,10 +1931,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="1">
-        <v>68187251</v>
+        <v>62060348</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>8</v>
@@ -1943,7 +1943,7 @@
         <v>17</v>
       </c>
       <c r="F62" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>18</v>
@@ -1954,10 +1954,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="1">
-        <v>68198175</v>
+        <v>62060512</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
@@ -1966,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="F63" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>18</v>
@@ -1977,10 +1977,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="1">
-        <v>68202027</v>
+        <v>62325576</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="2">
-        <v>76700</v>
+        <v>69500</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>18</v>
@@ -2000,10 +2000,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="1">
-        <v>68246453</v>
+        <v>63786362</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -2012,7 +2012,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>18</v>
@@ -2023,10 +2023,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="1">
-        <v>68247022</v>
+        <v>63786461</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="F66" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>18</v>
@@ -2046,10 +2046,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="1">
-        <v>68271055</v>
+        <v>63787485</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -2058,7 +2058,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>18</v>
@@ -2069,10 +2069,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="1">
-        <v>68277383</v>
+        <v>63788970</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
       <c r="F68" s="2">
-        <v>76700</v>
+        <v>70000</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>18</v>
@@ -2092,21 +2092,113 @@
         <v>63</v>
       </c>
       <c r="B69" s="1">
-        <v>68316330</v>
+        <v>63789242</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2">
+        <v>70000</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>64</v>
+      </c>
+      <c r="B70" s="1">
+        <v>63985931</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="2">
-        <v>76700</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="2">
+        <v>69000</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>65</v>
+      </c>
+      <c r="B71" s="1">
+        <v>63992184</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2">
+        <v>69000</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1">
+        <v>63993414</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="2">
+        <v>69000</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1">
+        <v>64032105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2">
+        <v>69000</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/SoftMasters/wwwroot/appdata/report.xlsx
+++ b/SoftMasters/wwwroot/appdata/report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>НАТУРНЫЙ ЛИСТ ПОЕЗДА</t>
   </si>
@@ -43,13 +43,13 @@
     <t>Станция:</t>
   </si>
   <si>
-    <t>НОВОКУЗНЕЦК-СОРТИРОВОЧНЫЙ</t>
+    <t>ЕВСИНО</t>
   </si>
   <si>
     <t>Состав №:</t>
   </si>
   <si>
-    <t>048</t>
+    <t>886</t>
   </si>
   <si>
     <t>Дата :</t>
@@ -79,13 +79,19 @@
     <t>Последняя операция</t>
   </si>
   <si>
-    <t>ЭЛ304932</t>
-  </si>
-  <si>
-    <t>УГОЛЬ КАМЕННЫЙ МАРКИ Т-ТОЩИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРИБЫТИЕ ВАГОНА В СОСТАВЕ  ПОЕЗДА НА СТАНЦИЮ</t>
+    <t>ЭЛ202503</t>
+  </si>
+  <si>
+    <t>АНТРАЦИТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТПРАВЛЕНИЕ  ВАГОНА В СОСТАВЕ ПОЕЗДА СО СТАНЦИИ</t>
+  </si>
+  <si>
+    <t>ЭЛ202452</t>
+  </si>
+  <si>
+    <t>ЭЛ202065</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -568,7 +574,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
-        <v>2634</v>
+        <v>2606</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -633,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>64061146</v>
+        <v>62089362</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -645,9 +651,285 @@
         <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>69500</v>
+        <v>74300</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62127154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>68250</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>62128111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>74250</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>62128137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>73650</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>62148440</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>68450</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>62173208</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2">
+        <v>73900</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>62193370</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>68250</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>62236948</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2">
+        <v>68750</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>62266739</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>68200</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>62271663</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>68550</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>62335807</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2">
+        <v>73800</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>62341136</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>73700</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>62355565</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>68900</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
